--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 8614-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 8614-2020.xlsx", "A 8614-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 8614-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 8614-2020.png", "A 8614-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/knärot/A 8614-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/knärot/A 8614-2020.png", "A 8614-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 8614-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 8614-2020.docx", "A 8614-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 8614-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 8614-2020.docx", "A 8614-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 8614-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 8614-2020.docx", "A 8614-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 8614-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 8614-2020.docx", "A 8614-2020")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -727,27 +727,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 61455-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 61455-2019.xlsx", "A 61455-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 61455-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 61455-2019.png", "A 61455-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 61455-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 61455-2019.docx", "A 61455-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 61455-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 61455-2019.docx", "A 61455-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 61455-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 61455-2019.docx", "A 61455-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 61455-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 61455-2019.docx", "A 61455-2019")</f>
         <v/>
       </c>
     </row>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -819,27 +819,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 25145-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 25145-2021.xlsx", "A 25145-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 25145-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 25145-2021.png", "A 25145-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 25145-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 25145-2021.docx", "A 25145-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 25145-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 25145-2021.docx", "A 25145-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 25145-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 25145-2021.docx", "A 25145-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 25145-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 25145-2021.docx", "A 25145-2021")</f>
         <v/>
       </c>
     </row>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -910,27 +910,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 14706-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 14706-2021.xlsx", "A 14706-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 14706-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 14706-2021.png", "A 14706-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 14706-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 14706-2021.docx", "A 14706-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 14706-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 14706-2021.docx", "A 14706-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 14706-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 14706-2021.docx", "A 14706-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 14706-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 14706-2021.docx", "A 14706-2021")</f>
         <v/>
       </c>
     </row>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,27 +1000,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 8835-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 8835-2021.xlsx", "A 8835-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 8835-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 8835-2021.png", "A 8835-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 8835-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 8835-2021.docx", "A 8835-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 8835-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 8835-2021.docx", "A 8835-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 8835-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 8835-2021.docx", "A 8835-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 8835-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 8835-2021.docx", "A 8835-2021")</f>
         <v/>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1089,27 +1089,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 18760-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 18760-2023.xlsx", "A 18760-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 18760-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 18760-2023.png", "A 18760-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 18760-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 18760-2023.docx", "A 18760-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 18760-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 18760-2023.docx", "A 18760-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 18760-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 18760-2023.docx", "A 18760-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 18760-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 18760-2023.docx", "A 18760-2023")</f>
         <v/>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,27 +1177,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 59298-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 59298-2021.xlsx", "A 59298-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 59298-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 59298-2021.png", "A 59298-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 59298-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 59298-2021.docx", "A 59298-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 59298-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 59298-2021.docx", "A 59298-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 59298-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 59298-2021.docx", "A 59298-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 59298-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 59298-2021.docx", "A 59298-2021")</f>
         <v/>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,27 +1264,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 17525-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 17525-2019.xlsx", "A 17525-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 17525-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 17525-2019.png", "A 17525-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 17525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 17525-2019.docx", "A 17525-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 17525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 17525-2019.docx", "A 17525-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 17525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 17525-2019.docx", "A 17525-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 17525-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 17525-2019.docx", "A 17525-2019")</f>
         <v/>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,27 +1356,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 26313-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 26313-2019.xlsx", "A 26313-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 26313-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 26313-2019.png", "A 26313-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 26313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 26313-2019.docx", "A 26313-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 26313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 26313-2019.docx", "A 26313-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 26313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 26313-2019.docx", "A 26313-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 26313-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 26313-2019.docx", "A 26313-2019")</f>
         <v/>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,27 +1442,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 5271-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 5271-2019.xlsx", "A 5271-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 5271-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 5271-2019.png", "A 5271-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 5271-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 5271-2019.docx", "A 5271-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 5271-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 5271-2019.docx", "A 5271-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 5271-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 5271-2019.docx", "A 5271-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 5271-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 5271-2019.docx", "A 5271-2019")</f>
         <v/>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,27 +1528,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 15021-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 15021-2019.xlsx", "A 15021-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 15021-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 15021-2019.png", "A 15021-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 15021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 15021-2019.docx", "A 15021-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 15021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 15021-2019.docx", "A 15021-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 15021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 15021-2019.docx", "A 15021-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 15021-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 15021-2019.docx", "A 15021-2019")</f>
         <v/>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1614,27 +1614,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 16752-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 16752-2022.xlsx", "A 16752-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 16752-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 16752-2022.png", "A 16752-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 16752-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 16752-2022.docx", "A 16752-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 16752-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 16752-2022.docx", "A 16752-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 16752-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 16752-2022.docx", "A 16752-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 16752-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 16752-2022.docx", "A 16752-2022")</f>
         <v/>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1704,27 +1704,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 48853-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 48853-2018.xlsx", "A 48853-2018")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 48853-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 48853-2018.png", "A 48853-2018")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 48853-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 48853-2018.docx", "A 48853-2018")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 48853-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 48853-2018.docx", "A 48853-2018")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 48853-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 48853-2018.docx", "A 48853-2018")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 48853-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 48853-2018.docx", "A 48853-2018")</f>
         <v/>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1789,27 +1789,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 65964-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 65964-2018.xlsx", "A 65964-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 65964-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 65964-2018.png", "A 65964-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 65964-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 65964-2018.docx", "A 65964-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 65964-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 65964-2018.docx", "A 65964-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 65964-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 65964-2018.docx", "A 65964-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 65964-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 65964-2018.docx", "A 65964-2018")</f>
         <v/>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1879,27 +1879,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 2601-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 2601-2019.xlsx", "A 2601-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 2601-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 2601-2019.png", "A 2601-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 2601-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 2601-2019.docx", "A 2601-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 2601-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 2601-2019.docx", "A 2601-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 2601-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 2601-2019.docx", "A 2601-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 2601-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 2601-2019.docx", "A 2601-2019")</f>
         <v/>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1964,27 +1964,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 6933-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 6933-2019.xlsx", "A 6933-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 6933-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 6933-2019.png", "A 6933-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 6933-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 6933-2019.docx", "A 6933-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 6933-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 6933-2019.docx", "A 6933-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 6933-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 6933-2019.docx", "A 6933-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 6933-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 6933-2019.docx", "A 6933-2019")</f>
         <v/>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2049,27 +2049,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 15030-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 15030-2019.xlsx", "A 15030-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 15030-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 15030-2019.png", "A 15030-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 15030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 15030-2019.docx", "A 15030-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 15030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 15030-2019.docx", "A 15030-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 15030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 15030-2019.docx", "A 15030-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 15030-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 15030-2019.docx", "A 15030-2019")</f>
         <v/>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,27 +2139,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 43663-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 43663-2020.xlsx", "A 43663-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 43663-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 43663-2020.png", "A 43663-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 43663-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 43663-2020.docx", "A 43663-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 43663-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 43663-2020.docx", "A 43663-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 43663-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 43663-2020.docx", "A 43663-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 43663-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 43663-2020.docx", "A 43663-2020")</f>
         <v/>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2229,27 +2229,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 50085-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 50085-2021.xlsx", "A 50085-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 50085-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 50085-2021.png", "A 50085-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 50085-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 50085-2021.docx", "A 50085-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 50085-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 50085-2021.docx", "A 50085-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 50085-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 50085-2021.docx", "A 50085-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 50085-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 50085-2021.docx", "A 50085-2021")</f>
         <v/>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2319,27 +2319,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 56067-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 56067-2021.xlsx", "A 56067-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 56067-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 56067-2021.png", "A 56067-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 56067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 56067-2021.docx", "A 56067-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 56067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 56067-2021.docx", "A 56067-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 56067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 56067-2021.docx", "A 56067-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 56067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 56067-2021.docx", "A 56067-2021")</f>
         <v/>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,27 +2404,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 25729-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 25729-2022.xlsx", "A 25729-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 25729-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 25729-2022.png", "A 25729-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 25729-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 25729-2022.docx", "A 25729-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 25729-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 25729-2022.docx", "A 25729-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 25729-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 25729-2022.docx", "A 25729-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 25729-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 25729-2022.docx", "A 25729-2022")</f>
         <v/>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2489,27 +2489,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 58717-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 58717-2022.xlsx", "A 58717-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 58717-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 58717-2022.png", "A 58717-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 58717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 58717-2022.docx", "A 58717-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 58717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 58717-2022.docx", "A 58717-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 58717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 58717-2022.docx", "A 58717-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 58717-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 58717-2022.docx", "A 58717-2022")</f>
         <v/>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2574,27 +2574,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 59362-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 59362-2022.xlsx", "A 59362-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 59362-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 59362-2022.png", "A 59362-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 59362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 59362-2022.docx", "A 59362-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 59362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 59362-2022.docx", "A 59362-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 59362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 59362-2022.docx", "A 59362-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 59362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 59362-2022.docx", "A 59362-2022")</f>
         <v/>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2659,27 +2659,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 4561-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 4561-2023.xlsx", "A 4561-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 4561-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 4561-2023.png", "A 4561-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 4561-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 4561-2023.docx", "A 4561-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 4561-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 4561-2023.docx", "A 4561-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 4561-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 4561-2023.docx", "A 4561-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 4561-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 4561-2023.docx", "A 4561-2023")</f>
         <v/>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y527"/>
+  <dimension ref="A1:Y529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31505,7 +31505,7 @@
       </c>
       <c r="R526" s="2" t="inlineStr"/>
     </row>
-    <row r="527">
+    <row r="527" ht="15" customHeight="1">
       <c r="A527" t="inlineStr">
         <is>
           <t>A 40673-2023</t>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31561,6 +31561,120 @@
         <v>0</v>
       </c>
       <c r="R527" s="2" t="inlineStr"/>
+    </row>
+    <row r="528" ht="15" customHeight="1">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>A 43765-2023</t>
+        </is>
+      </c>
+      <c r="B528" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C528" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="G528" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0</v>
+      </c>
+      <c r="K528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N528" t="n">
+        <v>0</v>
+      </c>
+      <c r="O528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R528" s="2" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>A 43861-2023</t>
+        </is>
+      </c>
+      <c r="B529" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C529" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="G529" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N529" t="n">
+        <v>0</v>
+      </c>
+      <c r="O529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R529" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44673</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43375</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>43434</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>43488</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43538</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44082</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44733</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44904</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>44951</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>43329</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>43377</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>43388</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43409</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43410</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43412</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         <v>43425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>43432</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>43437</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>43439</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43447</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43451</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43454</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>43467</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>43469</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>43471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43475</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>43476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43479</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>43486</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43487</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43489</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43494</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43496</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43503</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43514</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43517</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>43530</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43535</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7298,7 +7298,7 @@
         <v>43545</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>43549</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>43553</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43564</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43578</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43580</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43584</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43599</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43620</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43623</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43650</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>43655</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43684</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8847,7 +8847,7 @@
         <v>43693</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>43704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43711</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43713</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43718</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43722</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43724</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10275,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22556,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22670,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28266,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28323,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28380,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28437,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28494,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28608,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28722,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28779,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28836,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>45187</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y529"/>
+  <dimension ref="A1:Y530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,14 +1555,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 16752-2022</t>
+          <t>A 47756-2019</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44673</v>
+        <v>43724</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1575,16 +1575,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1609,1148 +1609,1177 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Rödvingetrast
+Svartvit flugsnappare</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 47756-2019.xlsx", "A 47756-2019")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 47756-2019.png", "A 47756-2019")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 47756-2019.docx", "A 47756-2019")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 47756-2019.docx", "A 47756-2019")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 47756-2019.docx", "A 47756-2019")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 47756-2019.docx", "A 47756-2019")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 16752-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>14</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Nästlav
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 16752-2022.xlsx", "A 16752-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 16752-2022.png", "A 16752-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 16752-2022.docx", "A 16752-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 16752-2022.docx", "A 16752-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 16752-2022.docx", "A 16752-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 16752-2022.docx", "A 16752-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 48853-2018</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>43375</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>3.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Större svartbagge</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 48853-2018.xlsx", "A 48853-2018")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 48853-2018.png", "A 48853-2018")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 48853-2018.docx", "A 48853-2018")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 48853-2018.docx", "A 48853-2018")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 48853-2018.docx", "A 48853-2018")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 48853-2018.docx", "A 48853-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 65964-2018</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>43434</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Blå kärrhök</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 65964-2018.xlsx", "A 65964-2018")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 65964-2018.png", "A 65964-2018")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 65964-2018.docx", "A 65964-2018")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 65964-2018.docx", "A 65964-2018")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 65964-2018.docx", "A 65964-2018")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 65964-2018.docx", "A 65964-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 2601-2019</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>43476</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>SCA</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>3.7</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Liten aspgelélav</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 2601-2019.xlsx", "A 2601-2019")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 2601-2019.png", "A 2601-2019")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 2601-2019.docx", "A 2601-2019")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 2601-2019.docx", "A 2601-2019")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 2601-2019.docx", "A 2601-2019")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 2601-2019.docx", "A 2601-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 6933-2019</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>43488</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>2.1</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Koralltaggsvamp</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 6933-2019.xlsx", "A 6933-2019")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 6933-2019.png", "A 6933-2019")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 6933-2019.docx", "A 6933-2019")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 6933-2019.docx", "A 6933-2019")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 6933-2019.docx", "A 6933-2019")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 6933-2019.docx", "A 6933-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 15030-2019</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>43538</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>3.7</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 15030-2019.xlsx", "A 15030-2019")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 15030-2019.png", "A 15030-2019")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 15030-2019.docx", "A 15030-2019")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 15030-2019.docx", "A 15030-2019")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 15030-2019.docx", "A 15030-2019")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 15030-2019.docx", "A 15030-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 43663-2020</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>44082</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>2.3</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Garnlav</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 43663-2020.xlsx", "A 43663-2020")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 43663-2020.png", "A 43663-2020")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 43663-2020.docx", "A 43663-2020")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 43663-2020.docx", "A 43663-2020")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 43663-2020.docx", "A 43663-2020")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 43663-2020.docx", "A 43663-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 50085-2021</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44456</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>5.1</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Granticka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 50085-2021.xlsx", "A 50085-2021")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 50085-2021.png", "A 50085-2021")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 50085-2021.docx", "A 50085-2021")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 50085-2021.docx", "A 50085-2021")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 50085-2021.docx", "A 50085-2021")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 50085-2021.docx", "A 50085-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 56067-2021</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>44477</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="C22" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>1.3</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 56067-2021.xlsx", "A 56067-2021")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 56067-2021.png", "A 56067-2021")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 56067-2021.docx", "A 56067-2021")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 56067-2021.docx", "A 56067-2021")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 56067-2021.docx", "A 56067-2021")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 56067-2021.docx", "A 56067-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 25729-2022</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>44733</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C23" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>3.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Ostticka</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 25729-2022.xlsx", "A 25729-2022")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 25729-2022.png", "A 25729-2022")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 25729-2022.docx", "A 25729-2022")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 25729-2022.docx", "A 25729-2022")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 25729-2022.docx", "A 25729-2022")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 25729-2022.docx", "A 25729-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 58717-2022</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>44902</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C24" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>5.9</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 58717-2022.xlsx", "A 58717-2022")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 58717-2022.png", "A 58717-2022")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 58717-2022.docx", "A 58717-2022")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 58717-2022.docx", "A 58717-2022")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 58717-2022.docx", "A 58717-2022")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 58717-2022.docx", "A 58717-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 59362-2022</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>44904</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="C25" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>5.1</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 59362-2022.xlsx", "A 59362-2022")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 59362-2022.png", "A 59362-2022")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 59362-2022.docx", "A 59362-2022")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 59362-2022.docx", "A 59362-2022")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 59362-2022.docx", "A 59362-2022")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 59362-2022.docx", "A 59362-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 4561-2023</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>44951</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="C26" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>4.1</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P26" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q26" t="n">
         <v>1</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Topplåsbräken</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/artfynd/A 4561-2023.xlsx", "A 4561-2023")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/kartor/A 4561-2023.png", "A 4561-2023")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomål/A 4561-2023.docx", "A 4561-2023")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/klagomålsmail/A 4561-2023.docx", "A 4561-2023")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsyn/A 4561-2023.docx", "A 4561-2023")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_LULEA/tillsynsmail/A 4561-2023.docx", "A 4561-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 36534-2018</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>43329</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr"/>
-    </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 36733-2018</t>
+          <t>A 36534-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2763,7 +2792,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7.6</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2800,14 +2829,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 36847-2018</t>
+          <t>A 36733-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2820,7 +2849,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2857,14 +2886,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36557-2018</t>
+          <t>A 36847-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2877,7 +2906,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2914,14 +2943,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 59672-2018</t>
+          <t>A 36557-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43371</v>
+        <v>43329</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2934,7 +2963,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2971,14 +3000,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 48140-2018</t>
+          <t>A 59672-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3028,14 +3057,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 50022-2018</t>
+          <t>A 48140-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43377</v>
+        <v>43371</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3048,7 +3077,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,14 +3114,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52474-2018</t>
+          <t>A 50022-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43388</v>
+        <v>43377</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3105,7 +3134,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>13.6</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3142,14 +3171,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 53820-2018</t>
+          <t>A 52474-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3162,7 +3191,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>8.300000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3199,14 +3228,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 53813-2018</t>
+          <t>A 53820-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3219,7 +3248,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3256,14 +3285,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 53818-2018</t>
+          <t>A 53813-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3276,7 +3305,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3313,14 +3342,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 57983-2018</t>
+          <t>A 53818-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43405</v>
+        <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3332,13 +3361,8 @@
           <t>LULEÅ</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3375,14 +3399,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 57973-2018</t>
+          <t>A 57983-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3400,7 +3424,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3437,14 +3461,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60678-2018</t>
+          <t>A 57973-2018</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43409</v>
+        <v>43405</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3456,8 +3480,13 @@
           <t>LULEÅ</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3494,14 +3523,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 58568-2018</t>
+          <t>A 60678-2018</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3511,11 +3540,6 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>LULEÅ</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>SCA</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -3556,14 +3580,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 60789-2018</t>
+          <t>A 58568-2018</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43410</v>
+        <v>43409</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3575,8 +3599,13 @@
           <t>LULEÅ</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>9.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3613,14 +3642,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60794-2018</t>
+          <t>A 60789-2018</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3633,7 +3662,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3670,14 +3699,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60790-2018</t>
+          <t>A 60794-2018</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3690,7 +3719,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3727,14 +3756,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60788-2018</t>
+          <t>A 60790-2018</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3747,7 +3776,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3784,14 +3813,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60796-2018</t>
+          <t>A 60788-2018</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3804,7 +3833,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3841,14 +3870,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 59990-2018</t>
+          <t>A 60796-2018</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43411</v>
+        <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3861,7 +3890,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>10.8</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3898,14 +3927,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 59994-2018</t>
+          <t>A 59990-2018</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3918,7 +3947,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>10.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3955,14 +3984,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 59992-2018</t>
+          <t>A 59994-2018</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3975,7 +4004,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4012,14 +4041,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 61057-2018</t>
+          <t>A 59992-2018</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4032,7 +4061,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4069,14 +4098,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60948-2018</t>
+          <t>A 61057-2018</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43412</v>
+        <v>43411</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4089,7 +4118,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4126,14 +4155,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60953-2018</t>
+          <t>A 60948-2018</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4146,7 +4175,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4183,14 +4212,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 63000-2018</t>
+          <t>A 60953-2018</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43417</v>
+        <v>43412</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4202,13 +4231,8 @@
           <t>LULEÅ</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4245,14 +4269,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 64506-2018</t>
+          <t>A 63000-2018</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43420</v>
+        <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4264,8 +4288,13 @@
           <t>LULEÅ</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>28.5</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4302,14 +4331,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 65584-2018</t>
+          <t>A 64506-2018</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43425</v>
+        <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4322,7 +4351,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.7</v>
+        <v>28.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4359,14 +4388,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 63909-2018</t>
+          <t>A 65584-2018</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43430</v>
+        <v>43425</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4379,7 +4408,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4416,14 +4445,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 64071-2018</t>
+          <t>A 63909-2018</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4436,7 +4465,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>9.4</v>
+        <v>3.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4473,14 +4502,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 67287-2018</t>
+          <t>A 64071-2018</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43432</v>
+        <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4493,7 +4522,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>9.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4530,14 +4559,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 67292-2018</t>
+          <t>A 67287-2018</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4550,7 +4579,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4587,14 +4616,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 67463-2018</t>
+          <t>A 67292-2018</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43433</v>
+        <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4607,7 +4636,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4644,14 +4673,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 67793-2018</t>
+          <t>A 67463-2018</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4664,7 +4693,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4701,14 +4730,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 67624-2018</t>
+          <t>A 67793-2018</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4721,7 +4750,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4758,14 +4787,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 67904-2018</t>
+          <t>A 67624-2018</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43437</v>
+        <v>43433</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4778,7 +4807,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4815,14 +4844,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 67902-2018</t>
+          <t>A 67904-2018</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4835,7 +4864,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4872,14 +4901,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 68511-2018</t>
+          <t>A 67902-2018</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43439</v>
+        <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4892,7 +4921,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4929,14 +4958,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 68518-2018</t>
+          <t>A 68511-2018</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4986,14 +5015,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 69665-2018</t>
+          <t>A 68518-2018</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43444</v>
+        <v>43439</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5006,7 +5035,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5043,14 +5072,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 69668-2018</t>
+          <t>A 69665-2018</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5063,7 +5092,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5100,14 +5129,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 70144-2018</t>
+          <t>A 69668-2018</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43445</v>
+        <v>43444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5120,7 +5149,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>8.1</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5157,14 +5186,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 69980-2018</t>
+          <t>A 70144-2018</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43447</v>
+        <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5177,7 +5206,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5214,14 +5243,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 69981-2018</t>
+          <t>A 69980-2018</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5234,7 +5263,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.7</v>
+        <v>7.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5271,14 +5300,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 70795-2018</t>
+          <t>A 69981-2018</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43451</v>
+        <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5291,7 +5320,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5328,14 +5357,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 71063-2018</t>
+          <t>A 70795-2018</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5348,7 +5377,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5385,14 +5414,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 352-2019</t>
+          <t>A 71063-2018</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43454</v>
+        <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5405,7 +5434,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5442,14 +5471,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 174-2019</t>
+          <t>A 352-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5462,7 +5491,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5499,14 +5528,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 138-2019</t>
+          <t>A 174-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43467</v>
+        <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5518,13 +5547,8 @@
           <t>LULEÅ</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5561,14 +5585,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2837-2019</t>
+          <t>A 138-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43469</v>
+        <v>43467</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,8 +5604,13 @@
           <t>LULEÅ</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5618,14 +5647,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 731-2019</t>
+          <t>A 2837-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43471</v>
+        <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5638,7 +5667,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5675,14 +5704,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 762-2019</t>
+          <t>A 731-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5695,7 +5724,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5732,14 +5761,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 730-2019</t>
+          <t>A 762-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5752,7 +5781,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5789,14 +5818,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 732-2019</t>
+          <t>A 730-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5809,7 +5838,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5846,14 +5875,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3866-2019</t>
+          <t>A 732-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43475</v>
+        <v>43471</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5866,7 +5895,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5903,14 +5932,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3886-2019</t>
+          <t>A 3866-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5923,7 +5952,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>11.8</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5960,14 +5989,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3895-2019</t>
+          <t>A 3886-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5980,7 +6009,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.4</v>
+        <v>11.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6017,14 +6046,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 2600-2019</t>
+          <t>A 3895-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43476</v>
+        <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,13 +6065,8 @@
           <t>LULEÅ</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6079,14 +6103,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2467-2019</t>
+          <t>A 2600-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6098,8 +6122,13 @@
           <t>LULEÅ</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6136,14 +6165,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4719-2019</t>
+          <t>A 2467-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43479</v>
+        <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6156,7 +6185,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6193,14 +6222,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4730-2019</t>
+          <t>A 4719-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6213,7 +6242,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6250,14 +6279,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4832-2019</t>
+          <t>A 4730-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43486</v>
+        <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,13 +6298,8 @@
           <t>LULEÅ</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6312,14 +6336,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5135-2019</t>
+          <t>A 4832-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43487</v>
+        <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6337,7 +6361,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6374,14 +6398,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7186-2019</t>
+          <t>A 5135-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43489</v>
+        <v>43487</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6393,8 +6417,13 @@
           <t>LULEÅ</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6431,14 +6460,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 16689-2019</t>
+          <t>A 7186-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43490</v>
+        <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6451,7 +6480,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>10.5</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6488,14 +6517,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 8041-2019</t>
+          <t>A 16689-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43494</v>
+        <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6508,7 +6537,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>10.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6545,14 +6574,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7251-2019</t>
+          <t>A 8041-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43496</v>
+        <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6565,7 +6594,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6602,14 +6631,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 8910-2019</t>
+          <t>A 7251-2019</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43503</v>
+        <v>43496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6622,7 +6651,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6659,14 +6688,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8959-2019</t>
+          <t>A 8910-2019</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6679,7 +6708,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6716,14 +6745,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9525-2019</t>
+          <t>A 8959-2019</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43507</v>
+        <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6736,7 +6765,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6773,14 +6802,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10781-2019</t>
+          <t>A 9525-2019</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43514</v>
+        <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6793,7 +6822,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6830,14 +6859,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 10870-2019</t>
+          <t>A 10781-2019</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6850,7 +6879,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6887,14 +6916,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 11534-2019</t>
+          <t>A 10870-2019</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43517</v>
+        <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6907,7 +6936,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6944,14 +6973,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12389-2019</t>
+          <t>A 11534-2019</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43523</v>
+        <v>43517</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6964,7 +6993,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7001,14 +7030,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12499-2019</t>
+          <t>A 12389-2019</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7020,13 +7049,8 @@
           <t>LULEÅ</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7063,14 +7087,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13550-2019</t>
+          <t>A 12499-2019</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43530</v>
+        <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7082,8 +7106,13 @@
           <t>LULEÅ</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7120,14 +7149,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13577-2019</t>
+          <t>A 13550-2019</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7140,7 +7169,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7177,14 +7206,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14544-2019</t>
+          <t>A 13577-2019</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43535</v>
+        <v>43530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7197,7 +7226,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7234,14 +7263,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14538-2019</t>
+          <t>A 14544-2019</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7254,7 +7283,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7291,14 +7320,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16207-2019</t>
+          <t>A 14538-2019</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43545</v>
+        <v>43535</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7311,7 +7340,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7348,14 +7377,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 16209-2019</t>
+          <t>A 16207-2019</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7368,7 +7397,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7405,14 +7434,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 16866-2019</t>
+          <t>A 16209-2019</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>43549</v>
+        <v>43545</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7425,7 +7454,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7462,14 +7491,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 17524-2019</t>
+          <t>A 16866-2019</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>43553</v>
+        <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7482,7 +7511,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7519,14 +7548,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 17530-2019</t>
+          <t>A 17524-2019</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7539,7 +7568,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7576,14 +7605,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 17848-2019</t>
+          <t>A 17530-2019</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>43556</v>
+        <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7596,7 +7625,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7633,14 +7662,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 17810-2019</t>
+          <t>A 17848-2019</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7653,7 +7682,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7690,14 +7719,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 17850-2019</t>
+          <t>A 17810-2019</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7710,7 +7739,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7747,14 +7776,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 17849-2019</t>
+          <t>A 17850-2019</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7767,7 +7796,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7804,14 +7833,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19262-2019</t>
+          <t>A 17849-2019</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>43564</v>
+        <v>43556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7824,7 +7853,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7861,14 +7890,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 21079-2019</t>
+          <t>A 19262-2019</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>43578</v>
+        <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7881,7 +7910,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7918,14 +7947,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 21548-2019</t>
+          <t>A 21079-2019</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>43580</v>
+        <v>43578</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7938,7 +7967,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7975,14 +8004,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 21550-2019</t>
+          <t>A 21548-2019</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7995,7 +8024,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8032,14 +8061,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 21547-2019</t>
+          <t>A 21550-2019</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8052,7 +8081,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8089,14 +8118,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 21546-2019</t>
+          <t>A 21547-2019</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8109,7 +8138,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8146,14 +8175,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 21916-2019</t>
+          <t>A 21546-2019</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43584</v>
+        <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8166,7 +8195,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8203,14 +8232,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 22098-2019</t>
+          <t>A 21916-2019</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8223,7 +8252,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8260,14 +8289,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 24885-2019</t>
+          <t>A 22098-2019</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>43599</v>
+        <v>43584</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8280,7 +8309,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8317,14 +8346,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 25208-2019</t>
+          <t>A 24885-2019</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>43605</v>
+        <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8337,7 +8366,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>25.8</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8374,14 +8403,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 25212-2019</t>
+          <t>A 25208-2019</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8394,7 +8423,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>10.4</v>
+        <v>25.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8431,14 +8460,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 29037-2019</t>
+          <t>A 25212-2019</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43620</v>
+        <v>43605</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8451,7 +8480,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.7</v>
+        <v>10.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8488,14 +8517,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28292-2019</t>
+          <t>A 29037-2019</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>43623</v>
+        <v>43620</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8507,13 +8536,8 @@
           <t>LULEÅ</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8550,14 +8574,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28286-2019</t>
+          <t>A 28292-2019</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8575,7 +8599,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8612,14 +8636,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 30202-2019</t>
+          <t>A 28286-2019</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>43634</v>
+        <v>43623</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8631,8 +8655,13 @@
           <t>LULEÅ</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8669,14 +8698,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 33452-2019</t>
+          <t>A 30202-2019</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>43650</v>
+        <v>43634</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8689,7 +8718,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8726,14 +8755,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 35672-2019</t>
+          <t>A 33452-2019</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>43655</v>
+        <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8746,7 +8775,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8783,14 +8812,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 38704-2019</t>
+          <t>A 35672-2019</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>43684</v>
+        <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8803,7 +8832,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.8</v>
+        <v>6.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8840,14 +8869,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 41091-2019</t>
+          <t>A 38704-2019</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>43693</v>
+        <v>43684</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8860,7 +8889,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8897,14 +8926,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 42780-2019</t>
+          <t>A 41091-2019</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>43704</v>
+        <v>43693</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8916,13 +8945,8 @@
           <t>LULEÅ</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8959,14 +8983,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 42782-2019</t>
+          <t>A 42780-2019</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +9008,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9021,14 +9045,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 44365-2019</t>
+          <t>A 42782-2019</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>43711</v>
+        <v>43704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9040,8 +9064,13 @@
           <t>LULEÅ</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9078,14 +9107,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45482-2019</t>
+          <t>A 44365-2019</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>43713</v>
+        <v>43711</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9097,13 +9126,8 @@
           <t>LULEÅ</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9140,14 +9164,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45252-2019</t>
+          <t>A 45482-2019</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9159,8 +9183,13 @@
           <t>LULEÅ</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9197,14 +9226,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 46780-2019</t>
+          <t>A 45252-2019</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>43718</v>
+        <v>43713</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9217,7 +9246,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9254,14 +9283,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47405-2019</t>
+          <t>A 46780-2019</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>43722</v>
+        <v>43718</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9274,7 +9303,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9311,14 +9340,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47756-2019</t>
+          <t>A 47405-2019</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>43724</v>
+        <v>43722</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9331,7 +9360,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9375,7 +9404,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9461,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9518,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9575,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9608,7 +9637,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9670,7 +9699,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9727,7 +9756,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9784,7 +9813,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9841,7 +9870,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9903,7 +9932,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9965,7 +9994,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10027,7 +10056,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10089,7 +10118,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10151,7 +10180,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10213,7 +10242,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10275,7 +10304,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10332,7 +10361,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10389,7 +10418,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10446,7 +10475,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10508,7 +10537,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10570,7 +10599,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10632,7 +10661,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10694,7 +10723,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10751,7 +10780,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10813,7 +10842,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10875,7 +10904,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10937,7 +10966,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10994,7 +11023,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11051,7 +11080,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11108,7 +11137,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11170,7 +11199,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11227,7 +11256,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11284,7 +11313,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11346,7 +11375,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11408,7 +11437,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11465,7 +11494,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11522,7 +11551,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11579,7 +11608,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11636,7 +11665,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11693,7 +11722,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11755,7 +11784,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11812,7 +11841,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11869,7 +11898,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11926,7 +11955,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11983,7 +12012,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12040,7 +12069,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12102,7 +12131,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12164,7 +12193,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12221,7 +12250,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12278,7 +12307,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12335,7 +12364,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12392,7 +12421,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12449,7 +12478,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12506,7 +12535,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12563,7 +12592,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12620,7 +12649,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12677,7 +12706,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12734,7 +12763,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12791,7 +12820,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12853,7 +12882,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12915,7 +12944,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12977,7 +13006,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13034,7 +13063,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13096,7 +13125,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13158,7 +13187,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13215,7 +13244,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13272,7 +13301,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13329,7 +13358,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13386,7 +13415,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13443,7 +13472,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13500,7 +13529,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13557,7 +13586,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13614,7 +13643,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13671,7 +13700,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13728,7 +13757,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13785,7 +13814,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13842,7 +13871,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13899,7 +13928,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13956,7 +13985,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14013,7 +14042,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14075,7 +14104,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14137,7 +14166,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14194,7 +14223,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14251,7 +14280,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14308,7 +14337,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14365,7 +14394,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14422,7 +14451,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14479,7 +14508,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14536,7 +14565,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14622,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14684,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14712,7 +14741,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14769,7 +14798,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14855,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14888,7 +14917,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14974,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15031,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15059,7 +15088,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15116,7 +15145,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15178,7 +15207,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15235,7 +15264,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15292,7 +15321,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15349,7 +15378,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15406,7 +15435,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15463,7 +15492,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15520,7 +15549,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15577,7 +15606,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15634,7 +15663,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15691,7 +15720,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15748,7 +15777,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15810,7 +15839,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15867,7 +15896,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15924,7 +15953,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15981,7 +16010,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16038,7 +16067,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16095,7 +16124,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16181,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16209,7 +16238,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16266,7 +16295,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16323,7 +16352,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16380,7 +16409,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16437,7 +16466,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16494,7 +16523,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16551,7 +16580,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16608,7 +16637,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16665,7 +16694,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16722,7 +16751,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16779,7 +16808,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16836,7 +16865,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16893,7 +16922,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16950,7 +16979,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17007,7 +17036,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17064,7 +17093,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17121,7 +17150,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17178,7 +17207,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17235,7 +17264,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17292,7 +17321,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17349,7 +17378,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17406,7 +17435,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17463,7 +17492,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17520,7 +17549,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17577,7 +17606,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17634,7 +17663,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17691,7 +17720,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17748,7 +17777,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17805,7 +17834,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17862,7 +17891,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17919,7 +17948,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17976,7 +18005,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18033,7 +18062,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18090,7 +18119,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18152,7 +18181,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18209,7 +18238,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18271,7 +18300,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18328,7 +18357,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18385,7 +18414,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18442,7 +18471,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18499,7 +18528,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18556,7 +18585,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18613,7 +18642,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18670,7 +18699,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18727,7 +18756,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18784,7 +18813,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18841,7 +18870,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18898,7 +18927,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18955,7 +18984,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19012,7 +19041,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19069,7 +19098,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19126,7 +19155,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19183,7 +19212,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19240,7 +19269,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19297,7 +19326,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19354,7 +19383,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19411,7 +19440,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19473,7 +19502,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19530,7 +19559,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19587,7 +19616,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19644,7 +19673,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19701,7 +19730,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19758,7 +19787,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19815,7 +19844,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19872,7 +19901,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19929,7 +19958,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19986,7 +20015,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20043,7 +20072,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20100,7 +20129,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20157,7 +20186,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20214,7 +20243,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20271,7 +20300,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20328,7 +20357,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20385,7 +20414,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20442,7 +20471,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20499,7 +20528,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20556,7 +20585,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20613,7 +20642,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20670,7 +20699,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20727,7 +20756,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20784,7 +20813,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20841,7 +20870,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20898,7 +20927,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20955,7 +20984,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21012,7 +21041,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21069,7 +21098,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21126,7 +21155,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21183,7 +21212,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21240,7 +21269,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21297,7 +21326,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21354,7 +21383,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21411,7 +21440,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21468,7 +21497,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21525,7 +21554,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21582,7 +21611,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21639,7 +21668,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21696,7 +21725,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21753,7 +21782,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21810,7 +21839,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21867,7 +21896,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21924,7 +21953,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21981,7 +22010,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22038,7 +22067,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22095,7 +22124,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22157,7 +22186,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22214,7 +22243,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22271,7 +22300,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22328,7 +22357,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22385,7 +22414,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22442,7 +22471,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22499,7 +22528,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22556,7 +22585,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22613,7 +22642,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22670,7 +22699,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22727,7 +22756,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22784,7 +22813,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22841,7 +22870,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22898,7 +22927,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22955,7 +22984,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23012,7 +23041,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23069,7 +23098,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23126,7 +23155,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23183,7 +23212,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23240,7 +23269,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23297,7 +23326,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23354,7 +23383,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23411,7 +23440,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23468,7 +23497,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23525,7 +23554,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23582,7 +23611,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23639,7 +23668,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23696,7 +23725,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23753,7 +23782,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23810,7 +23839,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23867,7 +23896,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23924,7 +23953,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23981,7 +24010,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24038,7 +24067,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24095,7 +24124,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24152,7 +24181,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24209,7 +24238,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24266,7 +24295,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24328,7 +24357,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24385,7 +24414,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24442,7 +24471,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24499,7 +24528,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24585,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24613,7 +24642,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24670,7 +24699,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24727,7 +24756,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24784,7 +24813,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24841,7 +24870,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24898,7 +24927,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24955,7 +24984,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25012,7 +25041,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25069,7 +25098,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25126,7 +25155,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25188,7 +25217,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25245,7 +25274,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25302,7 +25331,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25359,7 +25388,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25416,7 +25445,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25473,7 +25502,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25530,7 +25559,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25587,7 +25616,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25644,7 +25673,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25701,7 +25730,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25758,7 +25787,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25815,7 +25844,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25872,7 +25901,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25929,7 +25958,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25986,7 +26015,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26043,7 +26072,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26100,7 +26129,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26157,7 +26186,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26214,7 +26243,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26271,7 +26300,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26328,7 +26357,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26385,7 +26414,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26442,7 +26471,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26499,7 +26528,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26556,7 +26585,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26613,7 +26642,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26670,7 +26699,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26727,7 +26756,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26784,7 +26813,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26841,7 +26870,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26898,7 +26927,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26955,7 +26984,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27012,7 +27041,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27069,7 +27098,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27126,7 +27155,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27183,7 +27212,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27240,7 +27269,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27297,7 +27326,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27354,7 +27383,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27411,7 +27440,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27468,7 +27497,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27525,7 +27554,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27582,7 +27611,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27639,7 +27668,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27696,7 +27725,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27753,7 +27782,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27810,7 +27839,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27867,7 +27896,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27924,7 +27953,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27981,7 +28010,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28038,7 +28067,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28095,7 +28124,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28152,7 +28181,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28209,7 +28238,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28266,7 +28295,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28323,7 +28352,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28380,7 +28409,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28437,7 +28466,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28494,7 +28523,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28551,7 +28580,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28608,7 +28637,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28665,7 +28694,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28722,7 +28751,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28779,7 +28808,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28836,7 +28865,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28893,7 +28922,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28950,7 +28979,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29007,7 +29036,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29064,7 +29093,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29121,7 +29150,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29178,7 +29207,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29235,7 +29264,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29292,7 +29321,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29349,7 +29378,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29406,7 +29435,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29463,7 +29492,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29520,7 +29549,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29577,7 +29606,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29634,7 +29663,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29691,7 +29720,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29748,7 +29777,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29805,7 +29834,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29862,7 +29891,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29919,7 +29948,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29976,7 +30005,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30033,7 +30062,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30090,7 +30119,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30147,7 +30176,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30204,7 +30233,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30261,7 +30290,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30318,7 +30347,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30375,7 +30404,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30461,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30518,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30575,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30632,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30689,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30746,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30774,7 +30803,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30831,7 +30860,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30888,7 +30917,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30945,7 +30974,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31002,7 +31031,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31059,7 +31088,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31116,7 +31145,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31173,7 +31202,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31230,7 +31259,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31287,7 +31316,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31344,7 +31373,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31401,7 +31430,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31458,7 +31487,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31515,7 +31544,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31572,7 +31601,7 @@
         <v>45187</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31619,7 +31648,7 @@
       </c>
       <c r="R528" s="2" t="inlineStr"/>
     </row>
-    <row r="529">
+    <row r="529" ht="15" customHeight="1">
       <c r="A529" t="inlineStr">
         <is>
           <t>A 43861-2023</t>
@@ -31629,7 +31658,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31675,6 +31704,63 @@
         <v>0</v>
       </c>
       <c r="R529" s="2" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>A 44758-2023</t>
+        </is>
+      </c>
+      <c r="B530" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C530" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>LULEÅ</t>
+        </is>
+      </c>
+      <c r="G530" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0</v>
+      </c>
+      <c r="K530" t="n">
+        <v>0</v>
+      </c>
+      <c r="L530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N530" t="n">
+        <v>0</v>
+      </c>
+      <c r="O530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R530" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43724</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44673</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43488</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43538</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44082</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44456</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44733</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44902</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44904</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43329</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43371</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43377</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43405</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43409</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43411</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43412</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43425</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43433</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43439</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43467</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43471</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43487</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43517</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>43535</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43545</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43578</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43584</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43605</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43620</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43623</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43634</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43684</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43693</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>43711</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>43713</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>43718</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>43722</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26984,7 +26984,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27212,7 +27212,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27440,7 +27440,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30233,7 +30233,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31373,7 +31373,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31430,7 +31430,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45187</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45190</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43724</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44673</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43488</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43538</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44082</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44456</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44733</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44902</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44904</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43329</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43371</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43377</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43405</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43409</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43411</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43412</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43425</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43433</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43439</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43467</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43471</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43487</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43517</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>43535</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43545</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43578</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43584</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43605</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43620</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43623</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43634</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43684</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43693</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>43711</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>43713</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>43718</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>43722</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26984,7 +26984,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27212,7 +27212,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27440,7 +27440,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30233,7 +30233,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31373,7 +31373,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31430,7 +31430,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45187</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45190</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43724</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44673</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43488</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43538</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44082</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44456</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44733</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44902</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44904</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43329</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43371</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43377</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43405</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43409</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43411</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43412</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43425</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43433</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43439</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43467</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43471</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43487</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43517</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>43535</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43545</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43578</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43584</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43605</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43620</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43623</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43634</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43684</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43693</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>43711</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>43713</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>43718</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>43722</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26984,7 +26984,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27212,7 +27212,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27440,7 +27440,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30233,7 +30233,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31373,7 +31373,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31430,7 +31430,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45187</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45190</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43724</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44673</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43488</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43538</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44082</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44456</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44733</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44902</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44904</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43329</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43371</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43377</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43405</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43409</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43411</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43412</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43425</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43433</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43439</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43467</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43471</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43487</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43517</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>43535</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43545</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43578</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43584</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43605</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43620</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43623</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43634</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43684</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43693</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>43711</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>43713</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>43718</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>43722</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>43867</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>43868</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>43869</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>43871</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>43875</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>43887</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>43895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>43908</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>43913</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>43920</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>43922</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>43924</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>43924</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>43927</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>43927</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>43927</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>43927</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43927</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43927</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43962</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43985</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43992</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44007</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44014</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>44029</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>44050</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>44053</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>44063</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>44069</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>44074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14451,7 +14451,7 @@
         <v>44075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>44075</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44075</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44077</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>44078</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>44094</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44096</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44110</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44112</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44112</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44112</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44120</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44120</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44126</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44126</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44152</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44154</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44158</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44162</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>44165</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44165</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44165</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44166</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16067,7 +16067,7 @@
         <v>44166</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         <v>44176</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>44182</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>44183</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44207</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>44207</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         <v>44211</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>44211</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>44211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44211</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44211</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44211</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>44229</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>44235</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44236</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44239</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44239</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44239</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44239</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44239</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44243</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44243</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44243</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44245</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44264</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44264</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17720,7 +17720,7 @@
         <v>44272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17777,7 +17777,7 @@
         <v>44280</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17834,7 +17834,7 @@
         <v>44280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>44322</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17948,7 +17948,7 @@
         <v>44327</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18005,7 +18005,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44337</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18119,7 +18119,7 @@
         <v>44343</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>44347</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>44362</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44363</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>44379</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>44384</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>44384</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>44385</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>44400</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44400</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>44426</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>44435</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44441</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>44445</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>44446</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>44459</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>44459</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>44463</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>44463</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44473</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>44477</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44477</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44477</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44480</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44491</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44496</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44501</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44501</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44503</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44505</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44517</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44526</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44529</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44550</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44550</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>44552</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>44552</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44558</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44558</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44558</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>44558</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44558</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44558</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>44558</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44572</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>44574</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44578</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44579</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44580</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44586</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44587</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44610</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44610</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>44610</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44617</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44617</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44617</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44620</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44634</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>44635</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21896,7 +21896,7 @@
         <v>44655</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         <v>44657</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22010,7 +22010,7 @@
         <v>44664</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22067,7 +22067,7 @@
         <v>44673</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         <v>44714</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44720</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>44741</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22414,7 +22414,7 @@
         <v>44746</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>44746</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44762</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44783</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44789</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44789</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>44800</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>44810</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44820</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44837</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44839</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>44839</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>44852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>44852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>44854</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>44854</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44854</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44854</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>44854</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>44854</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>44854</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>44854</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44859</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>44859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44859</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>44859</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>44859</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>44859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44859</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>44859</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44861</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>44865</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>44867</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44867</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>44868</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>44868</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24585,7 +24585,7 @@
         <v>44868</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>44868</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24699,7 +24699,7 @@
         <v>44868</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24756,7 +24756,7 @@
         <v>44868</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>44868</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24870,7 +24870,7 @@
         <v>44868</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24927,7 +24927,7 @@
         <v>44869</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>44872</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44872</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44874</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44882</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>44886</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>44886</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
         <v>44886</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>44890</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>44890</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44895</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44897</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44897</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44897</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44897</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44897</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>44897</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>44907</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44909</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>44910</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
         <v>44911</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44914</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44914</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>44917</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44917</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>44917</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>44937</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>44937</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44937</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>44946</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>44950</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44952</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>44960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>44960</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26984,7 +26984,7 @@
         <v>44960</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>44966</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>44966</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>44973</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27212,7 +27212,7 @@
         <v>44973</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>44977</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>44977</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27383,7 +27383,7 @@
         <v>44977</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27440,7 +27440,7 @@
         <v>44977</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>44979</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>44981</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>44985</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>44985</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>44985</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>44985</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>44987</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>44987</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44992</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44992</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>44994</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>44995</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>44995</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44995</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45001</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45002</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45002</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45009</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45012</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45016</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45021</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45035</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45035</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45035</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>45040</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>45043</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45054</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45054</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>45058</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>45072</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45075</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>45075</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>45075</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>45077</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>45079</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>45079</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>45079</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>45091</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>45092</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>45096</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>45098</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30233,7 +30233,7 @@
         <v>45104</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45104</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45106</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30404,7 +30404,7 @@
         <v>45106</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30461,7 +30461,7 @@
         <v>45110</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30518,7 +30518,7 @@
         <v>45110</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30575,7 +30575,7 @@
         <v>45110</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>45111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>45111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>45112</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>45117</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>45132</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>45140</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>45145</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>45153</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>45153</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>45160</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>45160</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>45161</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31373,7 +31373,7 @@
         <v>45161</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31430,7 +31430,7 @@
         <v>45161</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31487,7 +31487,7 @@
         <v>45162</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45169</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45187</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45187</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31715,7 +31715,7 @@
         <v>45190</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43875</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43783</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44341</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44280</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>44245</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>45043</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>43609</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43488</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43724</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>44673</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>43375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43488</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>43538</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44082</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44456</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>44477</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44733</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>44902</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>44904</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43329</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43329</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43329</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43329</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43371</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43377</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43388</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43388</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43405</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>43409</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43409</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43410</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43410</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43410</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43410</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43410</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43411</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43412</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43412</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43417</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>43425</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43433</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43433</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43439</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>43444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>43444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>43447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43447</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>43454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>43467</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>43469</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>43471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>43471</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>43471</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>43471</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43476</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>43476</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>43479</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>43479</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>43486</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>43487</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>43489</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43503</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>43503</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>43507</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>43514</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>43514</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>43517</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>43530</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>43530</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43535</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>43535</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>43545</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>43545</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>43549</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>43553</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43553</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>43556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>43556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>43564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>43578</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>43580</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>43580</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>43580</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>43580</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>43584</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>43584</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43599</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>43605</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43620</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43623</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>43623</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43634</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>43650</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>43655</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>43684</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>43693</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>43704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>43711</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>43713</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>43713</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>43718</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>43722</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>43733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>43733</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>43740</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>43746</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
         <v>43748</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>43753</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>43761</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>43763</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>43763</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>43763</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>43763</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43763</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43763</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>43763</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43765</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43769</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43780</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>43781</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>43787</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43788</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43789</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43789</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>43789</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43791</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43791</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43794</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43797</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>43798</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43805</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>43817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43817</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>43819</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>43826</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>43832</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>43838</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43838</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>43838</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>43840</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43843</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43843</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43847</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43853</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>43860</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>43860</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>43867</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>43867</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
     